--- a/docs/itm.xlsx
+++ b/docs/itm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dusti\PycharmProjects\systa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9634B662-1D04-4DC2-AEEB-FA31500082BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09146542-2398-478A-89C4-109774B388F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="-16095" windowWidth="28800" windowHeight="15555" xr2:uid="{87030FB5-74AE-40B1-BB74-5DEAAA004307}"/>
+    <workbookView xWindow="1965" yWindow="1905" windowWidth="28800" windowHeight="15555" xr2:uid="{87030FB5-74AE-40B1-BB74-5DEAAA004307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="user_idle_seconds">Sheet1!$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateCount="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,10 +159,10 @@
     <tableColumn id="5" xr3:uid="{BDEC3584-B6B7-4DBA-A7D7-7A5F310DC6D5}" name="Is Begin Idle Period" dataDxfId="2">
       <calculatedColumnFormula>AND(Table3[[#This Row],[In Idle Period]], NOT(E3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5EEC6D17-545D-400D-B620-FB2B16F851F8}" name="Check Count" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{5EEC6D17-545D-400D-B620-FB2B16F851F8}" name="Check Count" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(Table3[[#This Row],[In Idle Period]],Table3[[#This Row],[Is Begin Idle Period]]), 1, IF(Table3[[#This Row],[In Idle Period]], IF((F3+1) &lt;= call_count_limit, IF(AND(F3+1=1, NOT(Table3[[#This Row],[Is Begin Idle Period]])), 0, F3+1), 0), 0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E8A664ED-F8C4-43F6-BC83-C1DCBC49B618}" name="Return Value" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{E8A664ED-F8C4-43F6-BC83-C1DCBC49B618}" name="Return Value" dataDxfId="0">
       <calculatedColumnFormula>Table3[[#This Row],[Check Count]]&gt;0</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -469,7 +470,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
